--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.506542</v>
+        <v>25.28841266666667</v>
       </c>
       <c r="H2">
-        <v>244.519626</v>
+        <v>75.86523800000001</v>
       </c>
       <c r="I2">
-        <v>0.2392262902761414</v>
+        <v>0.08258585054448338</v>
       </c>
       <c r="J2">
-        <v>0.2392262902761414</v>
+        <v>0.08258585054448338</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3839196666666667</v>
+        <v>0.5510350000000001</v>
       </c>
       <c r="N2">
-        <v>1.151759</v>
+        <v>1.653105</v>
       </c>
       <c r="O2">
-        <v>0.4103069146550474</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4103069146550474</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>31.29196443579266</v>
+        <v>13.93480047377667</v>
       </c>
       <c r="R2">
-        <v>281.627679922134</v>
+        <v>125.41320426399</v>
       </c>
       <c r="S2">
-        <v>0.09815620106757636</v>
+        <v>0.08258585054448338</v>
       </c>
       <c r="T2">
-        <v>0.09815620106757635</v>
+        <v>0.08258585054448338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.506542</v>
+        <v>195.050573</v>
       </c>
       <c r="H3">
-        <v>244.519626</v>
+        <v>585.1517190000001</v>
       </c>
       <c r="I3">
-        <v>0.2392262902761414</v>
+        <v>0.6369880815661784</v>
       </c>
       <c r="J3">
-        <v>0.2392262902761414</v>
+        <v>0.6369880815661784</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.03271033333333333</v>
+        <v>0.5510350000000001</v>
       </c>
       <c r="N3">
-        <v>0.098131</v>
+        <v>1.653105</v>
       </c>
       <c r="O3">
-        <v>0.03495855282399744</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.03495855282399743</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.666106157667333</v>
+        <v>107.479692493055</v>
       </c>
       <c r="R3">
-        <v>23.994955419006</v>
+        <v>967.3172324374951</v>
       </c>
       <c r="S3">
-        <v>0.008363004905507435</v>
+        <v>0.6369880815661784</v>
       </c>
       <c r="T3">
-        <v>0.008363004905507431</v>
+        <v>0.6369880815661784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.506542</v>
+        <v>55.14511</v>
       </c>
       <c r="H4">
-        <v>244.519626</v>
+        <v>165.43533</v>
       </c>
       <c r="I4">
-        <v>0.2392262902761414</v>
+        <v>0.180090615917626</v>
       </c>
       <c r="J4">
-        <v>0.2392262902761414</v>
+        <v>0.180090615917626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.519059</v>
+        <v>0.5510350000000001</v>
       </c>
       <c r="N4">
-        <v>1.557177</v>
+        <v>1.653105</v>
       </c>
       <c r="O4">
-        <v>0.5547345325209552</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5547345325209553</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>42.306704183978</v>
+        <v>30.38688568885</v>
       </c>
       <c r="R4">
-        <v>380.7603376558021</v>
+        <v>273.48197119965</v>
       </c>
       <c r="S4">
-        <v>0.1327070843030576</v>
+        <v>0.180090615917626</v>
       </c>
       <c r="T4">
-        <v>0.1327070843030576</v>
+        <v>0.180090615917626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,542 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.050573</v>
+        <v>30.723475</v>
       </c>
       <c r="H5">
-        <v>585.1517190000001</v>
+        <v>92.17042499999999</v>
       </c>
       <c r="I5">
-        <v>0.5724844147482753</v>
+        <v>0.1003354519717122</v>
       </c>
       <c r="J5">
-        <v>0.5724844147482753</v>
+        <v>0.1003354519717122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3839196666666667</v>
+        <v>0.5510350000000001</v>
       </c>
       <c r="N5">
-        <v>1.151759</v>
+        <v>1.653105</v>
       </c>
       <c r="O5">
-        <v>0.4103069146550474</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4103069146550474</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>74.88375096930234</v>
+        <v>16.929710046625</v>
       </c>
       <c r="R5">
-        <v>673.9537587237211</v>
+        <v>152.367390419625</v>
       </c>
       <c r="S5">
-        <v>0.2348943139034654</v>
+        <v>0.1003354519717122</v>
       </c>
       <c r="T5">
-        <v>0.2348943139034654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>195.050573</v>
-      </c>
-      <c r="H6">
-        <v>585.1517190000001</v>
-      </c>
-      <c r="I6">
-        <v>0.5724844147482753</v>
-      </c>
-      <c r="J6">
-        <v>0.5724844147482753</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.03271033333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.098131</v>
-      </c>
-      <c r="O6">
-        <v>0.03495855282399744</v>
-      </c>
-      <c r="P6">
-        <v>0.03495855282399743</v>
-      </c>
-      <c r="Q6">
-        <v>6.380169259687667</v>
-      </c>
-      <c r="R6">
-        <v>57.42152333718901</v>
-      </c>
-      <c r="S6">
-        <v>0.02001322665389284</v>
-      </c>
-      <c r="T6">
-        <v>0.02001322665389283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>195.050573</v>
-      </c>
-      <c r="H7">
-        <v>585.1517190000001</v>
-      </c>
-      <c r="I7">
-        <v>0.5724844147482753</v>
-      </c>
-      <c r="J7">
-        <v>0.5724844147482753</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.519059</v>
-      </c>
-      <c r="N7">
-        <v>1.557177</v>
-      </c>
-      <c r="O7">
-        <v>0.5547345325209552</v>
-      </c>
-      <c r="P7">
-        <v>0.5547345325209553</v>
-      </c>
-      <c r="Q7">
-        <v>101.242755370807</v>
-      </c>
-      <c r="R7">
-        <v>911.1847983372633</v>
-      </c>
-      <c r="S7">
-        <v>0.3175768741909171</v>
-      </c>
-      <c r="T7">
-        <v>0.3175768741909172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>44.21833233333334</v>
-      </c>
-      <c r="H8">
-        <v>132.654997</v>
-      </c>
-      <c r="I8">
-        <v>0.1297832952635985</v>
-      </c>
-      <c r="J8">
-        <v>0.1297832952635985</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.3839196666666667</v>
-      </c>
-      <c r="N8">
-        <v>1.151759</v>
-      </c>
-      <c r="O8">
-        <v>0.4103069146550474</v>
-      </c>
-      <c r="P8">
-        <v>0.4103069146550474</v>
-      </c>
-      <c r="Q8">
-        <v>16.97628740996922</v>
-      </c>
-      <c r="R8">
-        <v>152.786586689723</v>
-      </c>
-      <c r="S8">
-        <v>0.05325098345337213</v>
-      </c>
-      <c r="T8">
-        <v>0.05325098345337212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>44.21833233333334</v>
-      </c>
-      <c r="H9">
-        <v>132.654997</v>
-      </c>
-      <c r="I9">
-        <v>0.1297832952635985</v>
-      </c>
-      <c r="J9">
-        <v>0.1297832952635985</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.03271033333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.098131</v>
-      </c>
-      <c r="O9">
-        <v>0.03495855282399744</v>
-      </c>
-      <c r="P9">
-        <v>0.03495855282399743</v>
-      </c>
-      <c r="Q9">
-        <v>1.446396390067445</v>
-      </c>
-      <c r="R9">
-        <v>13.017567510607</v>
-      </c>
-      <c r="S9">
-        <v>0.004537036183144964</v>
-      </c>
-      <c r="T9">
-        <v>0.004537036183144962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>44.21833233333334</v>
-      </c>
-      <c r="H10">
-        <v>132.654997</v>
-      </c>
-      <c r="I10">
-        <v>0.1297832952635985</v>
-      </c>
-      <c r="J10">
-        <v>0.1297832952635985</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.519059</v>
-      </c>
-      <c r="N10">
-        <v>1.557177</v>
-      </c>
-      <c r="O10">
-        <v>0.5547345325209552</v>
-      </c>
-      <c r="P10">
-        <v>0.5547345325209553</v>
-      </c>
-      <c r="Q10">
-        <v>22.95192336260767</v>
-      </c>
-      <c r="R10">
-        <v>206.567310263469</v>
-      </c>
-      <c r="S10">
-        <v>0.07199527562708141</v>
-      </c>
-      <c r="T10">
-        <v>0.07199527562708141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>19.93351866666666</v>
-      </c>
-      <c r="H11">
-        <v>59.80055599999999</v>
-      </c>
-      <c r="I11">
-        <v>0.05850599971198488</v>
-      </c>
-      <c r="J11">
-        <v>0.05850599971198487</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.3839196666666667</v>
-      </c>
-      <c r="N11">
-        <v>1.151759</v>
-      </c>
-      <c r="O11">
-        <v>0.4103069146550474</v>
-      </c>
-      <c r="P11">
-        <v>0.4103069146550474</v>
-      </c>
-      <c r="Q11">
-        <v>7.652869842000444</v>
-      </c>
-      <c r="R11">
-        <v>68.87582857800399</v>
-      </c>
-      <c r="S11">
-        <v>0.02400541623063361</v>
-      </c>
-      <c r="T11">
-        <v>0.0240054162306336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>19.93351866666666</v>
-      </c>
-      <c r="H12">
-        <v>59.80055599999999</v>
-      </c>
-      <c r="I12">
-        <v>0.05850599971198488</v>
-      </c>
-      <c r="J12">
-        <v>0.05850599971198487</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.03271033333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.098131</v>
-      </c>
-      <c r="O12">
-        <v>0.03495855282399744</v>
-      </c>
-      <c r="P12">
-        <v>0.03495855282399743</v>
-      </c>
-      <c r="Q12">
-        <v>0.6520320400928888</v>
-      </c>
-      <c r="R12">
-        <v>5.868288360835999</v>
-      </c>
-      <c r="S12">
-        <v>0.002045285081452202</v>
-      </c>
-      <c r="T12">
-        <v>0.002045285081452201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.93351866666666</v>
-      </c>
-      <c r="H13">
-        <v>59.80055599999999</v>
-      </c>
-      <c r="I13">
-        <v>0.05850599971198488</v>
-      </c>
-      <c r="J13">
-        <v>0.05850599971198487</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.519059</v>
-      </c>
-      <c r="N13">
-        <v>1.557177</v>
-      </c>
-      <c r="O13">
-        <v>0.5547345325209552</v>
-      </c>
-      <c r="P13">
-        <v>0.5547345325209553</v>
-      </c>
-      <c r="Q13">
-        <v>10.34667226560133</v>
-      </c>
-      <c r="R13">
-        <v>93.120050390412</v>
-      </c>
-      <c r="S13">
-        <v>0.03245529839989907</v>
-      </c>
-      <c r="T13">
-        <v>0.03245529839989907</v>
+        <v>0.1003354519717122</v>
       </c>
     </row>
   </sheetData>
